--- a/resultados/pretratamiento-tablas-control/pretrat-inglaterra-elo-facil-regular.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-inglaterra-elo-facil-regular.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="1203">
   <si>
     <t>Pretrat</t>
   </si>
@@ -121,7 +121,7 @@
     <t>42.918 (195)</t>
   </si>
   <si>
-    <t>10.995 (195)</t>
+    <t>10.979 (195)</t>
   </si>
   <si>
     <t>10.826 (195)</t>
@@ -334,7 +334,7 @@
     <t>43.644 (163)</t>
   </si>
   <si>
-    <t>10.798 (163)</t>
+    <t>10.791 (163)</t>
   </si>
   <si>
     <t>10.509 (163)</t>
@@ -388,7 +388,7 @@
     <t>42.553 (161)</t>
   </si>
   <si>
-    <t>11.224 (161)</t>
+    <t>11.211 (161)</t>
   </si>
   <si>
     <t>10.801 (161)</t>
@@ -547,7 +547,7 @@
     <t>45.09 (133)</t>
   </si>
   <si>
-    <t>10.609 (133)</t>
+    <t>10.602 (133)</t>
   </si>
   <si>
     <t>10.391 (133)</t>
@@ -601,7 +601,7 @@
     <t>40.892 (166)</t>
   </si>
   <si>
-    <t>11.434 (166)</t>
+    <t>11.422 (166)</t>
   </si>
   <si>
     <t>11.09 (166)</t>
@@ -763,7 +763,7 @@
     <t>45.99 (102)</t>
   </si>
   <si>
-    <t>10.382 (102)</t>
+    <t>10.373 (102)</t>
   </si>
   <si>
     <t>10.441 (102)</t>
@@ -817,7 +817,7 @@
     <t>40.26 (177)</t>
   </si>
   <si>
-    <t>11.362 (177)</t>
+    <t>11.345 (177)</t>
   </si>
   <si>
     <t>10.898 (177)</t>
@@ -871,7 +871,7 @@
     <t>46.261 (69)</t>
   </si>
   <si>
-    <t>11.145 (69)</t>
+    <t>11.159 (69)</t>
   </si>
   <si>
     <t>10.797 (69)</t>
@@ -973,7 +973,7 @@
     <t>41.892 (130)</t>
   </si>
   <si>
-    <t>11.362 (130)</t>
+    <t>11.354 (130)</t>
   </si>
   <si>
     <t>11.085 (130)</t>
@@ -1183,7 +1183,7 @@
     <t>43.639 (97)</t>
   </si>
   <si>
-    <t>11.33 (97)</t>
+    <t>11.32 (97)</t>
   </si>
   <si>
     <t>10.649 (97)</t>
@@ -1453,7 +1453,7 @@
     <t>41.679 (162)</t>
   </si>
   <si>
-    <t>11.531 (162)</t>
+    <t>11.519 (162)</t>
   </si>
   <si>
     <t>11.031 (162)</t>
@@ -1507,7 +1507,7 @@
     <t>39.446 (65)</t>
   </si>
   <si>
-    <t>11.523 (65)</t>
+    <t>11.538 (65)</t>
   </si>
   <si>
     <t>11.169 (65)</t>
@@ -1666,7 +1666,7 @@
     <t>41.125 (160)</t>
   </si>
   <si>
-    <t>11.425 (160)</t>
+    <t>11.406 (160)</t>
   </si>
   <si>
     <t>10.9 (160)</t>
@@ -1720,7 +1720,7 @@
     <t>41.148 (88)</t>
   </si>
   <si>
-    <t>12.091 (88)</t>
+    <t>12.114 (88)</t>
   </si>
   <si>
     <t>11.25 (88)</t>
@@ -1879,7 +1879,7 @@
     <t>40.0 (131)</t>
   </si>
   <si>
-    <t>11.847 (131)</t>
+    <t>11.824 (131)</t>
   </si>
   <si>
     <t>11.351 (131)</t>
@@ -1930,7 +1930,7 @@
     <t>43.312 (32)</t>
   </si>
   <si>
-    <t>10.875 (32)</t>
+    <t>10.906 (32)</t>
   </si>
   <si>
     <t>9.969 (32)</t>
@@ -2080,7 +2080,7 @@
     <t>40.425 (127)</t>
   </si>
   <si>
-    <t>11.945 (127)</t>
+    <t>11.921 (127)</t>
   </si>
   <si>
     <t>11.425 (127)</t>
@@ -2131,7 +2131,7 @@
     <t>42.538 (52)</t>
   </si>
   <si>
-    <t>11.019 (52)</t>
+    <t>11.038 (52)</t>
   </si>
   <si>
     <t>10.635 (52)</t>
@@ -2293,7 +2293,7 @@
     <t>41.165 (121)</t>
   </si>
   <si>
-    <t>11.612 (121)</t>
+    <t>11.603 (121)</t>
   </si>
   <si>
     <t>11.091 (121)</t>
@@ -2347,7 +2347,7 @@
     <t>39.681 (72)</t>
   </si>
   <si>
-    <t>11.667 (72)</t>
+    <t>11.639 (72)</t>
   </si>
   <si>
     <t>10.986 (72)</t>
@@ -2401,7 +2401,7 @@
     <t>42.65 (20)</t>
   </si>
   <si>
-    <t>10.95 (20)</t>
+    <t>11.0 (20)</t>
   </si>
   <si>
     <t>10.45 (20)</t>
@@ -2524,7 +2524,7 @@
     <t>39.953 (106)</t>
   </si>
   <si>
-    <t>11.274 (106)</t>
+    <t>11.255 (106)</t>
   </si>
   <si>
     <t>10.811 (106)</t>
@@ -2737,7 +2737,7 @@
     <t>39.709 (55)</t>
   </si>
   <si>
-    <t>11.818 (55)</t>
+    <t>11.8 (55)</t>
   </si>
   <si>
     <t>11.145 (55)</t>
@@ -2791,7 +2791,7 @@
     <t>39.613 (106)</t>
   </si>
   <si>
-    <t>11.915 (106)</t>
+    <t>11.906 (106)</t>
   </si>
   <si>
     <t>10.934 (106)</t>
@@ -2842,7 +2842,7 @@
     <t>41.525 (40)</t>
   </si>
   <si>
-    <t>11.85 (40)</t>
+    <t>11.825 (40)</t>
   </si>
   <si>
     <t>10.95 (40)</t>
@@ -2893,6 +2893,9 @@
     <t>66.667 (3)</t>
   </si>
   <si>
+    <t>11.333 (3)</t>
+  </si>
+  <si>
     <t>12.0 (3)</t>
   </si>
   <si>
@@ -2989,7 +2992,7 @@
     <t>39.333 (93)</t>
   </si>
   <si>
-    <t>11.978 (93)</t>
+    <t>11.946 (93)</t>
   </si>
   <si>
     <t>10.86 (93)</t>
@@ -3097,7 +3100,7 @@
     <t>43.308 (13)</t>
   </si>
   <si>
-    <t>11.615 (13)</t>
+    <t>11.692 (13)</t>
   </si>
   <si>
     <t>12.077 (13)</t>
@@ -3256,7 +3259,7 @@
     <t>40.697 (76)</t>
   </si>
   <si>
-    <t>11.658 (76)</t>
+    <t>11.605 (76)</t>
   </si>
   <si>
     <t>10.724 (76)</t>
@@ -3310,7 +3313,7 @@
     <t>39.917 (24)</t>
   </si>
   <si>
-    <t>11.417 (24)</t>
+    <t>11.458 (24)</t>
   </si>
   <si>
     <t>11.75 (24)</t>
@@ -3361,7 +3364,7 @@
     <t>45.8 (5)</t>
   </si>
   <si>
-    <t>12.2 (5)</t>
+    <t>12.4 (5)</t>
   </si>
   <si>
     <t>10.8 (5)</t>
@@ -3460,7 +3463,7 @@
     <t>39.491 (53)</t>
   </si>
   <si>
-    <t>11.774 (53)</t>
+    <t>11.755 (53)</t>
   </si>
   <si>
     <t>11.132 (53)</t>
@@ -3511,7 +3514,7 @@
     <t>39.08 (87)</t>
   </si>
   <si>
-    <t>12.069 (87)</t>
+    <t>12.046 (87)</t>
   </si>
   <si>
     <t>10.586 (87)</t>
@@ -3607,7 +3610,7 @@
     <t>45.0 (9)</t>
   </si>
   <si>
-    <t>11.778 (9)</t>
+    <t>11.889 (9)</t>
   </si>
   <si>
     <t>9.667 (9)</t>
@@ -4068,10 +4071,10 @@
         <v>-0.107</v>
       </c>
       <c r="I2">
-        <v>-0.033</v>
+        <v>-0.032</v>
       </c>
       <c r="J2">
-        <v>0.973</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4100,10 +4103,10 @@
         <v>0.16</v>
       </c>
       <c r="I3">
-        <v>0.058</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J3">
-        <v>0.954</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4132,10 +4135,10 @@
         <v>0.589</v>
       </c>
       <c r="I4">
-        <v>0.144</v>
+        <v>0.139</v>
       </c>
       <c r="J4">
-        <v>0.886</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4164,10 +4167,10 @@
         <v>-0.11</v>
       </c>
       <c r="I5">
-        <v>-0.025</v>
+        <v>-0.036</v>
       </c>
       <c r="J5">
-        <v>0.98</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4196,10 +4199,10 @@
         <v>0.389</v>
       </c>
       <c r="I6">
-        <v>0.08699999999999999</v>
+        <v>0.091</v>
       </c>
       <c r="J6">
-        <v>0.931</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4228,10 +4231,10 @@
         <v>2.991</v>
       </c>
       <c r="I7">
-        <v>0.642</v>
+        <v>0.632</v>
       </c>
       <c r="J7">
-        <v>0.522</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4257,13 +4260,13 @@
         <v>0.036</v>
       </c>
       <c r="H8">
-        <v>-0.8070000000000001</v>
+        <v>-0.744</v>
       </c>
       <c r="I8">
-        <v>-0.588</v>
+        <v>-0.593</v>
       </c>
       <c r="J8">
-        <v>0.5570000000000001</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4292,10 +4295,10 @@
         <v>0.171</v>
       </c>
       <c r="I9">
-        <v>0.132</v>
+        <v>0.163</v>
       </c>
       <c r="J9">
-        <v>0.895</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4324,10 +4327,10 @@
         <v>-0.503</v>
       </c>
       <c r="I10">
-        <v>-0.322</v>
+        <v>-0.308</v>
       </c>
       <c r="J10">
-        <v>0.747</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4356,10 +4359,10 @@
         <v>-0.743</v>
       </c>
       <c r="I11">
-        <v>-0.46</v>
+        <v>-0.607</v>
       </c>
       <c r="J11">
-        <v>0.646</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4388,10 +4391,10 @@
         <v>0.075</v>
       </c>
       <c r="I12">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="J12">
-        <v>0.964</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4420,10 +4423,10 @@
         <v>-1.544</v>
       </c>
       <c r="I13">
-        <v>-0.908</v>
+        <v>-0.879</v>
       </c>
       <c r="J13">
-        <v>0.365</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4452,10 +4455,10 @@
         <v>0.003</v>
       </c>
       <c r="I14">
-        <v>0.145</v>
+        <v>0.13</v>
       </c>
       <c r="J14">
-        <v>0.885</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4484,10 +4487,10 @@
         <v>-0.011</v>
       </c>
       <c r="I15">
-        <v>-0.451</v>
+        <v>-0.422</v>
       </c>
       <c r="J15">
-        <v>0.652</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4516,10 +4519,10 @@
         <v>-0.015</v>
       </c>
       <c r="I16">
-        <v>-0.551</v>
+        <v>-0.681</v>
       </c>
       <c r="J16">
-        <v>0.582</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4548,10 +4551,10 @@
         <v>0.011</v>
       </c>
       <c r="I17">
-        <v>0.424</v>
+        <v>0.482</v>
       </c>
       <c r="J17">
-        <v>0.672</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4580,10 +4583,10 @@
         <v>-0.02</v>
       </c>
       <c r="I18">
-        <v>-0.748</v>
+        <v>-0.656</v>
       </c>
       <c r="J18">
-        <v>0.455</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4612,10 +4615,10 @@
         <v>-0.014</v>
       </c>
       <c r="I19">
-        <v>-0.513</v>
+        <v>-0.599</v>
       </c>
       <c r="J19">
-        <v>0.609</v>
+        <v>0.549</v>
       </c>
     </row>
   </sheetData>
@@ -4701,10 +4704,10 @@
         <v>4.036</v>
       </c>
       <c r="I2">
-        <v>1.084</v>
+        <v>1.305</v>
       </c>
       <c r="J2">
-        <v>0.28</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4733,10 +4736,10 @@
         <v>-1.291</v>
       </c>
       <c r="I3">
-        <v>-0.427</v>
+        <v>-0.48</v>
       </c>
       <c r="J3">
-        <v>0.67</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4765,10 +4768,10 @@
         <v>-7.033</v>
       </c>
       <c r="I4">
-        <v>-1.475</v>
+        <v>-1.687</v>
       </c>
       <c r="J4">
-        <v>0.142</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4797,10 +4800,10 @@
         <v>-12.449</v>
       </c>
       <c r="I5">
-        <v>-2.39</v>
+        <v>-2.939</v>
       </c>
       <c r="J5">
-        <v>0.018</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4829,10 +4832,10 @@
         <v>-9.821999999999999</v>
       </c>
       <c r="I6">
-        <v>-1.802</v>
+        <v>-1.933</v>
       </c>
       <c r="J6">
-        <v>0.073</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4861,10 +4864,10 @@
         <v>-0.729</v>
       </c>
       <c r="I7">
-        <v>-0.13</v>
+        <v>-0.132</v>
       </c>
       <c r="J7">
-        <v>0.897</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4890,13 +4893,13 @@
         <v>0.038</v>
       </c>
       <c r="H8">
-        <v>-2.388</v>
+        <v>-2.38</v>
       </c>
       <c r="I8">
-        <v>-1.424</v>
+        <v>-1.847</v>
       </c>
       <c r="J8">
-        <v>0.156</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4925,10 +4928,10 @@
         <v>0.329</v>
       </c>
       <c r="I9">
-        <v>0.227</v>
+        <v>0.263</v>
       </c>
       <c r="J9">
-        <v>0.821</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4957,10 +4960,10 @@
         <v>2.177</v>
       </c>
       <c r="I10">
-        <v>1.15</v>
+        <v>1.181</v>
       </c>
       <c r="J10">
-        <v>0.252</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4989,10 +4992,10 @@
         <v>3.477</v>
       </c>
       <c r="I11">
-        <v>1.763</v>
+        <v>1.992</v>
       </c>
       <c r="J11">
-        <v>0.08</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5021,10 +5024,10 @@
         <v>2.772</v>
       </c>
       <c r="I12">
-        <v>1.336</v>
+        <v>1.352</v>
       </c>
       <c r="J12">
-        <v>0.183</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5053,10 +5056,10 @@
         <v>-0.493</v>
       </c>
       <c r="I13">
-        <v>-0.239</v>
+        <v>-0.24</v>
       </c>
       <c r="J13">
-        <v>0.8120000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5085,10 +5088,10 @@
         <v>0.017</v>
       </c>
       <c r="I14">
-        <v>0.614</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="J14">
-        <v>0.54</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5117,10 +5120,10 @@
         <v>0.005</v>
       </c>
       <c r="I15">
-        <v>0.173</v>
+        <v>0.156</v>
       </c>
       <c r="J15">
-        <v>0.863</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5149,10 +5152,10 @@
         <v>-0.025</v>
       </c>
       <c r="I16">
-        <v>-0.748</v>
+        <v>-0.789</v>
       </c>
       <c r="J16">
-        <v>0.456</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5181,10 +5184,10 @@
         <v>0.059</v>
       </c>
       <c r="I17">
-        <v>1.834</v>
+        <v>1.775</v>
       </c>
       <c r="J17">
-        <v>0.068</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5213,10 +5216,10 @@
         <v>-0.003</v>
       </c>
       <c r="I18">
-        <v>-0.08699999999999999</v>
+        <v>-0.093</v>
       </c>
       <c r="J18">
-        <v>0.931</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5245,10 +5248,10 @@
         <v>0.029</v>
       </c>
       <c r="I19">
-        <v>0.907</v>
+        <v>0.76</v>
       </c>
       <c r="J19">
-        <v>0.366</v>
+        <v>0.447</v>
       </c>
     </row>
   </sheetData>
@@ -5341,10 +5344,10 @@
         <v>5.772</v>
       </c>
       <c r="J2">
-        <v>1.364</v>
+        <v>1.795</v>
       </c>
       <c r="K2">
-        <v>0.174</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5376,10 +5379,10 @@
         <v>2.292</v>
       </c>
       <c r="J3">
-        <v>0.666</v>
+        <v>0.586</v>
       </c>
       <c r="K3">
-        <v>0.506</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5411,10 +5414,10 @@
         <v>-6.262</v>
       </c>
       <c r="J4">
-        <v>-1.15</v>
+        <v>-1.267</v>
       </c>
       <c r="K4">
-        <v>0.251</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5446,10 +5449,10 @@
         <v>-9.930999999999999</v>
       </c>
       <c r="J5">
-        <v>-1.661</v>
+        <v>-1.946</v>
       </c>
       <c r="K5">
-        <v>0.098</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5481,10 +5484,10 @@
         <v>-8.807</v>
       </c>
       <c r="J6">
-        <v>-1.414</v>
+        <v>-1.62</v>
       </c>
       <c r="K6">
-        <v>0.159</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5516,10 +5519,10 @@
         <v>0.307</v>
       </c>
       <c r="J7">
-        <v>0.048</v>
+        <v>0.043</v>
       </c>
       <c r="K7">
-        <v>0.962</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5548,13 +5551,13 @@
         <v>0.029</v>
       </c>
       <c r="I8">
-        <v>-2.707</v>
+        <v>-2.746</v>
       </c>
       <c r="J8">
-        <v>-1.417</v>
+        <v>-1.891</v>
       </c>
       <c r="K8">
-        <v>0.158</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5586,10 +5589,10 @@
         <v>-1.488</v>
       </c>
       <c r="J9">
-        <v>-0.902</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="K9">
-        <v>0.368</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5621,10 +5624,10 @@
         <v>1.477</v>
       </c>
       <c r="J10">
-        <v>0.6830000000000001</v>
+        <v>0.718</v>
       </c>
       <c r="K10">
-        <v>0.495</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5656,10 +5659,10 @@
         <v>3.12</v>
       </c>
       <c r="J11">
-        <v>1.384</v>
+        <v>1.728</v>
       </c>
       <c r="K11">
-        <v>0.168</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5691,10 +5694,10 @@
         <v>2.282</v>
       </c>
       <c r="J12">
-        <v>0.963</v>
+        <v>1.137</v>
       </c>
       <c r="K12">
-        <v>0.337</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5726,10 +5729,10 @@
         <v>-0.08799999999999999</v>
       </c>
       <c r="J13">
-        <v>-0.038</v>
+        <v>-0.034</v>
       </c>
       <c r="K13">
-        <v>0.97</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5761,10 +5764,10 @@
         <v>0.02</v>
       </c>
       <c r="J14">
-        <v>0.637</v>
+        <v>0.855</v>
       </c>
       <c r="K14">
-        <v>0.525</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5796,10 +5799,10 @@
         <v>-0.007</v>
       </c>
       <c r="J15">
-        <v>-0.199</v>
+        <v>-0.223</v>
       </c>
       <c r="K15">
-        <v>0.843</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5831,10 +5834,10 @@
         <v>-0.034</v>
       </c>
       <c r="J16">
-        <v>-0.91</v>
+        <v>-1.056</v>
       </c>
       <c r="K16">
-        <v>0.364</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5866,10 +5869,10 @@
         <v>0.05</v>
       </c>
       <c r="J17">
-        <v>1.364</v>
+        <v>1.304</v>
       </c>
       <c r="K17">
-        <v>0.174</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5901,10 +5904,10 @@
         <v>-0.02</v>
       </c>
       <c r="J18">
-        <v>-0.53</v>
+        <v>-0.5620000000000001</v>
       </c>
       <c r="K18">
-        <v>0.597</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5936,10 +5939,10 @@
         <v>0.012</v>
       </c>
       <c r="J19">
-        <v>0.319</v>
+        <v>0.318</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
     </row>
   </sheetData>
@@ -6032,10 +6035,10 @@
         <v>1.814</v>
       </c>
       <c r="J2">
-        <v>0.358</v>
+        <v>0.403</v>
       </c>
       <c r="K2">
-        <v>0.721</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6067,10 +6070,10 @@
         <v>3.988</v>
       </c>
       <c r="J3">
-        <v>0.974</v>
+        <v>0.786</v>
       </c>
       <c r="K3">
-        <v>0.331</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -6102,10 +6105,10 @@
         <v>-3.861</v>
       </c>
       <c r="J4">
-        <v>-0.594</v>
+        <v>-0.619</v>
       </c>
       <c r="K4">
-        <v>0.554</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6137,10 +6140,10 @@
         <v>-12.035</v>
       </c>
       <c r="J5">
-        <v>-1.689</v>
+        <v>-1.671</v>
       </c>
       <c r="K5">
-        <v>0.093</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6172,10 +6175,10 @@
         <v>-13.549</v>
       </c>
       <c r="J6">
-        <v>-1.831</v>
+        <v>-1.899</v>
       </c>
       <c r="K6">
-        <v>0.06900000000000001</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6207,10 +6210,10 @@
         <v>4.554</v>
       </c>
       <c r="J7">
-        <v>0.6</v>
+        <v>0.511</v>
       </c>
       <c r="K7">
-        <v>0.549</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6239,13 +6242,13 @@
         <v>0.02</v>
       </c>
       <c r="I8">
-        <v>-0.843</v>
+        <v>-0.852</v>
       </c>
       <c r="J8">
-        <v>-0.368</v>
+        <v>-0.409</v>
       </c>
       <c r="K8">
-        <v>0.713</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6277,10 +6280,10 @@
         <v>-2.889</v>
       </c>
       <c r="J9">
-        <v>-1.474</v>
+        <v>-1.279</v>
       </c>
       <c r="K9">
-        <v>0.142</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6312,10 +6315,10 @@
         <v>0.215</v>
       </c>
       <c r="J10">
-        <v>0.083</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="K10">
-        <v>0.9340000000000001</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6347,10 +6350,10 @@
         <v>4.047</v>
       </c>
       <c r="J11">
-        <v>1.508</v>
+        <v>1.521</v>
       </c>
       <c r="K11">
-        <v>0.133</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6382,10 +6385,10 @@
         <v>4.096</v>
       </c>
       <c r="J12">
-        <v>1.454</v>
+        <v>1.687</v>
       </c>
       <c r="K12">
-        <v>0.148</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6417,10 +6420,10 @@
         <v>-1.501</v>
       </c>
       <c r="J13">
-        <v>-0.535</v>
+        <v>-0.473</v>
       </c>
       <c r="K13">
-        <v>0.593</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6452,10 +6455,10 @@
         <v>0.005</v>
       </c>
       <c r="J14">
-        <v>0.126</v>
+        <v>0.169</v>
       </c>
       <c r="K14">
-        <v>0.9</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6487,10 +6490,10 @@
         <v>-0.022</v>
       </c>
       <c r="J15">
-        <v>-0.546</v>
+        <v>-0.54</v>
       </c>
       <c r="K15">
-        <v>0.586</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6522,10 +6525,10 @@
         <v>-0.01</v>
       </c>
       <c r="J16">
-        <v>-0.227</v>
+        <v>-0.24</v>
       </c>
       <c r="K16">
-        <v>0.821</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6557,10 +6560,10 @@
         <v>0.042</v>
       </c>
       <c r="J17">
-        <v>0.952</v>
+        <v>1.076</v>
       </c>
       <c r="K17">
-        <v>0.342</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6592,10 +6595,10 @@
         <v>-0.018</v>
       </c>
       <c r="J18">
-        <v>-0.395</v>
+        <v>-0.498</v>
       </c>
       <c r="K18">
-        <v>0.6929999999999999</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6627,10 +6630,10 @@
         <v>-0.016</v>
       </c>
       <c r="J19">
-        <v>-0.369</v>
+        <v>-0.383</v>
       </c>
       <c r="K19">
-        <v>0.713</v>
+        <v>0.702</v>
       </c>
     </row>
   </sheetData>
@@ -6716,10 +6719,10 @@
         <v>0.994</v>
       </c>
       <c r="I2">
-        <v>0.316</v>
+        <v>0.371</v>
       </c>
       <c r="J2">
-        <v>0.753</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6748,10 +6751,10 @@
         <v>-1.912</v>
       </c>
       <c r="I3">
-        <v>-0.794</v>
+        <v>-0.743</v>
       </c>
       <c r="J3">
-        <v>0.429</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6780,10 +6783,10 @@
         <v>-0.239</v>
       </c>
       <c r="I4">
-        <v>-0.055</v>
+        <v>-0.05</v>
       </c>
       <c r="J4">
-        <v>0.956</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6812,10 +6815,10 @@
         <v>3.921</v>
       </c>
       <c r="I5">
-        <v>0.824</v>
+        <v>0.747</v>
       </c>
       <c r="J5">
-        <v>0.411</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6844,10 +6847,10 @@
         <v>-1.388</v>
       </c>
       <c r="I6">
-        <v>-0.287</v>
+        <v>-0.221</v>
       </c>
       <c r="J6">
-        <v>0.775</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6876,10 +6879,10 @@
         <v>-1.072</v>
       </c>
       <c r="I7">
-        <v>-0.203</v>
+        <v>-0.166</v>
       </c>
       <c r="J7">
-        <v>0.84</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6896,7 +6899,7 @@
         <v>937</v>
       </c>
       <c r="E8" t="s">
-        <v>441</v>
+        <v>954</v>
       </c>
       <c r="F8">
         <v>204</v>
@@ -6905,13 +6908,13 @@
         <v>0.058</v>
       </c>
       <c r="H8">
-        <v>-0.172</v>
+        <v>-0.176</v>
       </c>
       <c r="I8">
-        <v>-0.112</v>
+        <v>-0.127</v>
       </c>
       <c r="J8">
-        <v>0.911</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6928,7 +6931,7 @@
         <v>938</v>
       </c>
       <c r="E9" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F9">
         <v>204</v>
@@ -6940,10 +6943,10 @@
         <v>0.197</v>
       </c>
       <c r="I9">
-        <v>0.164</v>
+        <v>0.143</v>
       </c>
       <c r="J9">
-        <v>0.87</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6960,7 +6963,7 @@
         <v>939</v>
       </c>
       <c r="E10" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F10">
         <v>204</v>
@@ -6972,10 +6975,10 @@
         <v>0.188</v>
       </c>
       <c r="I10">
-        <v>0.108</v>
+        <v>0.1</v>
       </c>
       <c r="J10">
-        <v>0.915</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6992,7 +6995,7 @@
         <v>940</v>
       </c>
       <c r="E11" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F11">
         <v>204</v>
@@ -7004,10 +7007,10 @@
         <v>-1.281</v>
       </c>
       <c r="I11">
-        <v>-0.705</v>
+        <v>-0.708</v>
       </c>
       <c r="J11">
-        <v>0.482</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7036,10 +7039,10 @@
         <v>-0.106</v>
       </c>
       <c r="I12">
-        <v>-0.056</v>
+        <v>-0.045</v>
       </c>
       <c r="J12">
-        <v>0.955</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7056,7 +7059,7 @@
         <v>942</v>
       </c>
       <c r="E13" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F13">
         <v>204</v>
@@ -7068,10 +7071,10 @@
         <v>-0.168</v>
       </c>
       <c r="I13">
-        <v>-0.08599999999999999</v>
+        <v>-0.075</v>
       </c>
       <c r="J13">
-        <v>0.931</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7088,7 +7091,7 @@
         <v>943</v>
       </c>
       <c r="E14" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F14">
         <v>204</v>
@@ -7100,10 +7103,10 @@
         <v>0.006</v>
       </c>
       <c r="I14">
-        <v>0.202</v>
+        <v>0.168</v>
       </c>
       <c r="J14">
-        <v>0.84</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7132,10 +7135,10 @@
         <v>0.023</v>
       </c>
       <c r="I15">
-        <v>0.83</v>
+        <v>0.824</v>
       </c>
       <c r="J15">
-        <v>0.408</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7152,7 +7155,7 @@
         <v>945</v>
       </c>
       <c r="E16" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F16">
         <v>204</v>
@@ -7164,10 +7167,10 @@
         <v>0.013</v>
       </c>
       <c r="I16">
-        <v>0.398</v>
+        <v>0.381</v>
       </c>
       <c r="J16">
-        <v>0.6909999999999999</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7184,7 +7187,7 @@
         <v>946</v>
       </c>
       <c r="E17" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F17">
         <v>204</v>
@@ -7196,10 +7199,10 @@
         <v>0.051</v>
       </c>
       <c r="I17">
-        <v>1.799</v>
+        <v>1.946</v>
       </c>
       <c r="J17">
-        <v>0.074</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7216,7 +7219,7 @@
         <v>947</v>
       </c>
       <c r="E18" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F18">
         <v>204</v>
@@ -7228,10 +7231,10 @@
         <v>-0.003</v>
       </c>
       <c r="I18">
-        <v>-0.102</v>
+        <v>-0.089</v>
       </c>
       <c r="J18">
-        <v>0.919</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7248,7 +7251,7 @@
         <v>947</v>
       </c>
       <c r="E19" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F19">
         <v>204</v>
@@ -7260,10 +7263,10 @@
         <v>0.04</v>
       </c>
       <c r="I19">
-        <v>1.359</v>
+        <v>1.108</v>
       </c>
       <c r="J19">
-        <v>0.176</v>
+        <v>0.268</v>
       </c>
     </row>
   </sheetData>
@@ -7328,16 +7331,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F2">
         <v>204</v>
@@ -7349,10 +7352,10 @@
         <v>5.347</v>
       </c>
       <c r="I2">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="J2">
-        <v>0.136</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7360,16 +7363,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F3">
         <v>204</v>
@@ -7381,10 +7384,10 @@
         <v>-3.968</v>
       </c>
       <c r="I3">
-        <v>-1.45</v>
+        <v>-1.776</v>
       </c>
       <c r="J3">
-        <v>0.149</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7392,16 +7395,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C4" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D4" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E4" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F4">
         <v>204</v>
@@ -7413,10 +7416,10 @@
         <v>-5.156</v>
       </c>
       <c r="I4">
-        <v>-1.047</v>
+        <v>-1.051</v>
       </c>
       <c r="J4">
-        <v>0.297</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7424,16 +7427,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C5" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E5" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F5">
         <v>204</v>
@@ -7445,10 +7448,10 @@
         <v>-3.967</v>
       </c>
       <c r="I5">
-        <v>-0.73</v>
+        <v>-0.8149999999999999</v>
       </c>
       <c r="J5">
-        <v>0.467</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7456,16 +7459,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C6" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D6" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E6" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F6">
         <v>204</v>
@@ -7477,10 +7480,10 @@
         <v>-8.202999999999999</v>
       </c>
       <c r="I6">
-        <v>-1.497</v>
+        <v>-1.261</v>
       </c>
       <c r="J6">
-        <v>0.137</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7488,16 +7491,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C7" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D7" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E7" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F7">
         <v>204</v>
@@ -7509,10 +7512,10 @@
         <v>-1.182</v>
       </c>
       <c r="I7">
-        <v>-0.196</v>
+        <v>-0.201</v>
       </c>
       <c r="J7">
-        <v>0.845</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7520,16 +7523,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C8" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D8" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E8" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F8">
         <v>204</v>
@@ -7538,13 +7541,13 @@
         <v>0.043</v>
       </c>
       <c r="H8">
-        <v>-2.327</v>
+        <v>-2.336</v>
       </c>
       <c r="I8">
-        <v>-1.342</v>
+        <v>-1.457</v>
       </c>
       <c r="J8">
-        <v>0.182</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7552,16 +7555,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C9" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D9" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E9" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F9">
         <v>204</v>
@@ -7573,10 +7576,10 @@
         <v>1.506</v>
       </c>
       <c r="I9">
-        <v>1.097</v>
+        <v>1.216</v>
       </c>
       <c r="J9">
-        <v>0.274</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7584,16 +7587,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C10" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D10" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E10" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F10">
         <v>204</v>
@@ -7605,10 +7608,10 @@
         <v>1.917</v>
       </c>
       <c r="I10">
-        <v>0.964</v>
+        <v>0.873</v>
       </c>
       <c r="J10">
-        <v>0.337</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7616,16 +7619,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C11" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D11" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E11" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F11">
         <v>204</v>
@@ -7637,10 +7640,10 @@
         <v>1.462</v>
       </c>
       <c r="I11">
-        <v>0.705</v>
+        <v>0.891</v>
       </c>
       <c r="J11">
-        <v>0.482</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7648,16 +7651,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C12" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D12" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E12" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F12">
         <v>204</v>
@@ -7669,10 +7672,10 @@
         <v>2.212</v>
       </c>
       <c r="I12">
-        <v>1.025</v>
+        <v>0.961</v>
       </c>
       <c r="J12">
-        <v>0.307</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7680,16 +7683,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C13" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D13" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E13" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F13">
         <v>204</v>
@@ -7701,10 +7704,10 @@
         <v>-0.631</v>
       </c>
       <c r="I13">
-        <v>-0.284</v>
+        <v>-0.32</v>
       </c>
       <c r="J13">
-        <v>0.777</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7712,16 +7715,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C14" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D14" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E14" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F14">
         <v>204</v>
@@ -7733,10 +7736,10 @@
         <v>0.014</v>
       </c>
       <c r="I14">
-        <v>0.454</v>
+        <v>0.416</v>
       </c>
       <c r="J14">
-        <v>0.651</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7744,16 +7747,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C15" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D15" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E15" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F15">
         <v>204</v>
@@ -7765,10 +7768,10 @@
         <v>0.015</v>
       </c>
       <c r="I15">
-        <v>0.478</v>
+        <v>0.456</v>
       </c>
       <c r="J15">
-        <v>0.633</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7776,16 +7779,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C16" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D16" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E16" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F16">
         <v>204</v>
@@ -7797,10 +7800,10 @@
         <v>-0.005</v>
       </c>
       <c r="I16">
-        <v>-0.151</v>
+        <v>-0.16</v>
       </c>
       <c r="J16">
-        <v>0.88</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7808,16 +7811,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C17" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D17" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E17" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F17">
         <v>204</v>
@@ -7829,10 +7832,10 @@
         <v>0.048</v>
       </c>
       <c r="I17">
-        <v>1.48</v>
+        <v>1.482</v>
       </c>
       <c r="J17">
-        <v>0.141</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7840,16 +7843,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C18" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D18" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E18" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F18">
         <v>204</v>
@@ -7861,10 +7864,10 @@
         <v>0.003</v>
       </c>
       <c r="I18">
-        <v>0.097</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J18">
-        <v>0.923</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7872,16 +7875,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C19" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D19" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E19" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F19">
         <v>204</v>
@@ -7893,10 +7896,10 @@
         <v>0.036</v>
       </c>
       <c r="I19">
-        <v>1.078</v>
+        <v>0.914</v>
       </c>
       <c r="J19">
-        <v>0.283</v>
+        <v>0.361</v>
       </c>
     </row>
   </sheetData>
@@ -7965,19 +7968,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="F2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="G2">
         <v>204</v>
@@ -7989,10 +7992,10 @@
         <v>5.678</v>
       </c>
       <c r="J2">
-        <v>1.401</v>
+        <v>1.551</v>
       </c>
       <c r="K2">
-        <v>0.163</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8000,19 +8003,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C3" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D3" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E3" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="F3" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="G3">
         <v>204</v>
@@ -8024,10 +8027,10 @@
         <v>-2.527</v>
       </c>
       <c r="J3">
-        <v>-0.8090000000000001</v>
+        <v>-0.845</v>
       </c>
       <c r="K3">
-        <v>0.42</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8035,19 +8038,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C4" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D4" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E4" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="F4" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="G4">
         <v>204</v>
@@ -8059,10 +8062,10 @@
         <v>-1.095</v>
       </c>
       <c r="J4">
-        <v>-0.195</v>
+        <v>-0.236</v>
       </c>
       <c r="K4">
-        <v>0.846</v>
+        <v>0.8129999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8070,19 +8073,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C5" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D5" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E5" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="F5" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="G5">
         <v>204</v>
@@ -8094,10 +8097,10 @@
         <v>1.444</v>
       </c>
       <c r="J5">
-        <v>0.234</v>
+        <v>0.29</v>
       </c>
       <c r="K5">
-        <v>0.8159999999999999</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8105,19 +8108,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C6" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D6" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E6" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="F6" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="G6">
         <v>204</v>
@@ -8129,10 +8132,10 @@
         <v>-6.361</v>
       </c>
       <c r="J6">
-        <v>-1.018</v>
+        <v>-1.128</v>
       </c>
       <c r="K6">
-        <v>0.31</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8140,16 +8143,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C7" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D7" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E7" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="F7" t="s">
         <v>880</v>
@@ -8164,10 +8167,10 @@
         <v>-1.305</v>
       </c>
       <c r="J7">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="K7">
-        <v>0.849</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8175,19 +8178,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C8" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D8" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E8" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="F8" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="G8">
         <v>204</v>
@@ -8196,13 +8199,13 @@
         <v>0.034</v>
       </c>
       <c r="I8">
-        <v>-2.001</v>
+        <v>-2.07</v>
       </c>
       <c r="J8">
-        <v>-1.014</v>
+        <v>-1.123</v>
       </c>
       <c r="K8">
-        <v>0.312</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8210,19 +8213,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C9" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D9" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E9" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="F9" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="G9">
         <v>204</v>
@@ -8234,10 +8237,10 @@
         <v>0.327</v>
       </c>
       <c r="J9">
-        <v>0.209</v>
+        <v>0.19</v>
       </c>
       <c r="K9">
-        <v>0.835</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8245,19 +8248,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C10" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D10" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E10" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="F10" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="G10">
         <v>204</v>
@@ -8269,10 +8272,10 @@
         <v>0.224</v>
       </c>
       <c r="J10">
-        <v>0.099</v>
+        <v>0.104</v>
       </c>
       <c r="K10">
-        <v>0.921</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8280,19 +8283,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C11" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E11" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="F11" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="G11">
         <v>204</v>
@@ -8304,10 +8307,10 @@
         <v>0.045</v>
       </c>
       <c r="J11">
-        <v>0.019</v>
+        <v>0.029</v>
       </c>
       <c r="K11">
-        <v>0.985</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8315,19 +8318,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C12" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D12" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E12" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="F12" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="G12">
         <v>204</v>
@@ -8339,10 +8342,10 @@
         <v>1.088</v>
       </c>
       <c r="J12">
-        <v>0.443</v>
+        <v>0.451</v>
       </c>
       <c r="K12">
-        <v>0.659</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8350,19 +8353,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C13" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D13" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E13" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="F13" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="G13">
         <v>204</v>
@@ -8374,10 +8377,10 @@
         <v>0.408</v>
       </c>
       <c r="J13">
-        <v>0.162</v>
+        <v>0.17</v>
       </c>
       <c r="K13">
-        <v>0.872</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8385,19 +8388,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C14" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D14" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E14" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="F14" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="G14">
         <v>204</v>
@@ -8409,10 +8412,10 @@
         <v>0.021</v>
       </c>
       <c r="J14">
-        <v>0.589</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="K14">
-        <v>0.5570000000000001</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8420,19 +8423,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C15" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D15" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E15" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F15" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="G15">
         <v>204</v>
@@ -8444,10 +8447,10 @@
         <v>0.026</v>
       </c>
       <c r="J15">
-        <v>0.7</v>
+        <v>0.849</v>
       </c>
       <c r="K15">
-        <v>0.485</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8455,19 +8458,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C16" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D16" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E16" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F16" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="G16">
         <v>204</v>
@@ -8479,10 +8482,10 @@
         <v>-0.015</v>
       </c>
       <c r="J16">
-        <v>-0.367</v>
+        <v>-0.308</v>
       </c>
       <c r="K16">
-        <v>0.714</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8490,19 +8493,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C17" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D17" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E17" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="F17" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="G17">
         <v>204</v>
@@ -8514,10 +8517,10 @@
         <v>0.056</v>
       </c>
       <c r="J17">
-        <v>1.517</v>
+        <v>1.579</v>
       </c>
       <c r="K17">
-        <v>0.132</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8525,19 +8528,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C18" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D18" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E18" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="F18" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="G18">
         <v>204</v>
@@ -8549,10 +8552,10 @@
         <v>0.004</v>
       </c>
       <c r="J18">
-        <v>0.107</v>
+        <v>0.104</v>
       </c>
       <c r="K18">
-        <v>0.915</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8560,19 +8563,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C19" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D19" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E19" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="F19" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="G19">
         <v>204</v>
@@ -8584,10 +8587,10 @@
         <v>0.018</v>
       </c>
       <c r="J19">
-        <v>0.478</v>
+        <v>0.47</v>
       </c>
       <c r="K19">
-        <v>0.633</v>
+        <v>0.638</v>
       </c>
     </row>
   </sheetData>
@@ -8656,19 +8659,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="E2" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="F2" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="G2">
         <v>204</v>
@@ -8680,10 +8683,10 @@
         <v>1.632</v>
       </c>
       <c r="J2">
-        <v>0.342</v>
+        <v>0.36</v>
       </c>
       <c r="K2">
-        <v>0.733</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8691,19 +8694,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C3" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D3" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="E3" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="F3" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="G3">
         <v>204</v>
@@ -8715,10 +8718,10 @@
         <v>-2.833</v>
       </c>
       <c r="J3">
-        <v>-0.776</v>
+        <v>-0.805</v>
       </c>
       <c r="K3">
-        <v>0.439</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8726,19 +8729,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C4" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D4" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E4" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="F4" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="G4">
         <v>204</v>
@@ -8750,10 +8753,10 @@
         <v>-0.266</v>
       </c>
       <c r="J4">
-        <v>-0.041</v>
+        <v>-0.048</v>
       </c>
       <c r="K4">
-        <v>0.968</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8761,19 +8764,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C5" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D5" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E5" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="F5" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="G5">
         <v>204</v>
@@ -8785,10 +8788,10 @@
         <v>5.272</v>
       </c>
       <c r="J5">
-        <v>0.731</v>
+        <v>1.152</v>
       </c>
       <c r="K5">
-        <v>0.466</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8796,19 +8799,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C6" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D6" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="E6" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F6" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="G6">
         <v>204</v>
@@ -8820,10 +8823,10 @@
         <v>-6.506</v>
       </c>
       <c r="J6">
-        <v>-0.89</v>
+        <v>-0.883</v>
       </c>
       <c r="K6">
-        <v>0.375</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8831,19 +8834,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C7" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D7" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="E7" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="F7" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="G7">
         <v>204</v>
@@ -8855,10 +8858,10 @@
         <v>2.724</v>
       </c>
       <c r="J7">
-        <v>0.34</v>
+        <v>0.346</v>
       </c>
       <c r="K7">
-        <v>0.734</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8866,19 +8869,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C8" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D8" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="E8" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="F8" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="G8">
         <v>204</v>
@@ -8887,13 +8890,13 @@
         <v>0.025</v>
       </c>
       <c r="I8">
-        <v>-0.394</v>
+        <v>-0.416</v>
       </c>
       <c r="J8">
-        <v>-0.17</v>
+        <v>-0.191</v>
       </c>
       <c r="K8">
-        <v>0.865</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8901,16 +8904,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C9" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D9" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="E9" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="F9" t="s">
         <v>718</v>
@@ -8925,7 +8928,7 @@
         <v>0.471</v>
       </c>
       <c r="J9">
-        <v>0.258</v>
+        <v>0.257</v>
       </c>
       <c r="K9">
         <v>0.797</v>
@@ -8936,19 +8939,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C10" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D10" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="E10" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="F10" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="G10">
         <v>204</v>
@@ -8971,19 +8974,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C11" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D11" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E11" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="F11" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="G11">
         <v>204</v>
@@ -8995,10 +8998,10 @@
         <v>-1.228</v>
       </c>
       <c r="J11">
-        <v>-0.446</v>
+        <v>-0.757</v>
       </c>
       <c r="K11">
-        <v>0.656</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -9006,19 +9009,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C12" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D12" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E12" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="F12" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G12">
         <v>204</v>
@@ -9030,10 +9033,10 @@
         <v>1.462</v>
       </c>
       <c r="J12">
-        <v>0.509</v>
+        <v>0.48</v>
       </c>
       <c r="K12">
-        <v>0.611</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -9041,19 +9044,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C13" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D13" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E13" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="F13" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="G13">
         <v>204</v>
@@ -9065,10 +9068,10 @@
         <v>-0.89</v>
       </c>
       <c r="J13">
-        <v>-0.302</v>
+        <v>-0.297</v>
       </c>
       <c r="K13">
-        <v>0.763</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -9076,19 +9079,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C14" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="E14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="F14" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="G14">
         <v>204</v>
@@ -9100,10 +9103,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="J14">
-        <v>-0.21</v>
+        <v>-0.231</v>
       </c>
       <c r="K14">
-        <v>0.834</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -9111,16 +9114,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C15" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D15" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="E15" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="F15" t="s">
         <v>728</v>
@@ -9135,10 +9138,10 @@
         <v>0.01</v>
       </c>
       <c r="J15">
-        <v>0.244</v>
+        <v>0.266</v>
       </c>
       <c r="K15">
-        <v>0.8080000000000001</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -9146,19 +9149,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C16" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D16" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E16" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="F16" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="G16">
         <v>204</v>
@@ -9181,19 +9184,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C17" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D17" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="E17" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="F17" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="G17">
         <v>204</v>
@@ -9205,10 +9208,10 @@
         <v>0.037</v>
       </c>
       <c r="J17">
-        <v>0.85</v>
+        <v>0.921</v>
       </c>
       <c r="K17">
-        <v>0.397</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9216,19 +9219,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C18" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D18" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E18" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="F18" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="G18">
         <v>204</v>
@@ -9240,10 +9243,10 @@
         <v>0.004</v>
       </c>
       <c r="J18">
-        <v>0.098</v>
+        <v>0.105</v>
       </c>
       <c r="K18">
-        <v>0.922</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -9251,19 +9254,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C19" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D19" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E19" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="F19" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="G19">
         <v>204</v>
@@ -9275,10 +9278,10 @@
         <v>0.015</v>
       </c>
       <c r="J19">
-        <v>0.328</v>
+        <v>0.362</v>
       </c>
       <c r="K19">
-        <v>0.743</v>
+        <v>0.717</v>
       </c>
     </row>
   </sheetData>
@@ -9364,10 +9367,10 @@
         <v>1.91</v>
       </c>
       <c r="I2">
-        <v>0.515</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="J2">
-        <v>0.607</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9396,10 +9399,10 @@
         <v>-2.172</v>
       </c>
       <c r="I3">
-        <v>-0.6820000000000001</v>
+        <v>-0.752</v>
       </c>
       <c r="J3">
-        <v>0.496</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9428,10 +9431,10 @@
         <v>-0.726</v>
       </c>
       <c r="I4">
-        <v>-0.153</v>
+        <v>-0.155</v>
       </c>
       <c r="J4">
-        <v>0.878</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9460,10 +9463,10 @@
         <v>-1.698</v>
       </c>
       <c r="I5">
-        <v>-0.334</v>
+        <v>-0.364</v>
       </c>
       <c r="J5">
-        <v>0.738</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9492,10 +9495,10 @@
         <v>-2.461</v>
       </c>
       <c r="I6">
-        <v>-0.477</v>
+        <v>-0.543</v>
       </c>
       <c r="J6">
-        <v>0.634</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9524,10 +9527,10 @@
         <v>3.7</v>
       </c>
       <c r="I7">
-        <v>0.6870000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="J7">
-        <v>0.492</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9553,13 +9556,13 @@
         <v>0.027</v>
       </c>
       <c r="H8">
-        <v>-1.712</v>
+        <v>-1.691</v>
       </c>
       <c r="I8">
-        <v>-1.08</v>
+        <v>-1.229</v>
       </c>
       <c r="J8">
-        <v>0.281</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9588,10 +9591,10 @@
         <v>1.422</v>
       </c>
       <c r="I9">
-        <v>0.951</v>
+        <v>1.094</v>
       </c>
       <c r="J9">
-        <v>0.342</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9652,10 +9655,10 @@
         <v>-0.104</v>
       </c>
       <c r="I11">
-        <v>-0.056</v>
+        <v>-0.052</v>
       </c>
       <c r="J11">
-        <v>0.956</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9684,10 +9687,10 @@
         <v>0.596</v>
       </c>
       <c r="I12">
-        <v>0.309</v>
+        <v>0.371</v>
       </c>
       <c r="J12">
-        <v>0.757</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9716,10 +9719,10 @@
         <v>-2.134</v>
       </c>
       <c r="I13">
-        <v>-1.087</v>
+        <v>-1.245</v>
       </c>
       <c r="J13">
-        <v>0.278</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9748,10 +9751,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="J14">
-        <v>0.992</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9780,10 +9783,10 @@
         <v>-0.018</v>
       </c>
       <c r="I15">
-        <v>-0.648</v>
+        <v>-0.537</v>
       </c>
       <c r="J15">
-        <v>0.518</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9812,10 +9815,10 @@
         <v>-0.032</v>
       </c>
       <c r="I16">
-        <v>-1.044</v>
+        <v>-0.959</v>
       </c>
       <c r="J16">
-        <v>0.297</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9844,10 +9847,10 @@
         <v>0.029</v>
       </c>
       <c r="I17">
-        <v>0.967</v>
+        <v>1.09</v>
       </c>
       <c r="J17">
-        <v>0.334</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9876,10 +9879,10 @@
         <v>-0.013</v>
       </c>
       <c r="I18">
-        <v>-0.437</v>
+        <v>-0.365</v>
       </c>
       <c r="J18">
-        <v>0.662</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9908,10 +9911,10 @@
         <v>0.011</v>
       </c>
       <c r="I19">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="J19">
-        <v>0.723</v>
+        <v>0.724</v>
       </c>
     </row>
   </sheetData>
@@ -9997,10 +10000,10 @@
         <v>3.52</v>
       </c>
       <c r="I2">
-        <v>0.842</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J2">
-        <v>0.401</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10029,10 +10032,10 @@
         <v>-0.732</v>
       </c>
       <c r="I3">
-        <v>-0.204</v>
+        <v>-0.201</v>
       </c>
       <c r="J3">
-        <v>0.839</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10061,10 +10064,10 @@
         <v>0.323</v>
       </c>
       <c r="I4">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
       <c r="J4">
-        <v>0.952</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10093,10 +10096,10 @@
         <v>-0.497</v>
       </c>
       <c r="I5">
-        <v>-0.08699999999999999</v>
+        <v>-0.098</v>
       </c>
       <c r="J5">
-        <v>0.931</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10125,10 +10128,10 @@
         <v>-2.221</v>
       </c>
       <c r="I6">
-        <v>-0.381</v>
+        <v>-0.414</v>
       </c>
       <c r="J6">
-        <v>0.703</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10157,10 +10160,10 @@
         <v>3.102</v>
       </c>
       <c r="I7">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J7">
-        <v>0.61</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10186,13 +10189,13 @@
         <v>0.021</v>
       </c>
       <c r="H8">
-        <v>-2.092</v>
+        <v>-2.052</v>
       </c>
       <c r="I8">
-        <v>-1.17</v>
+        <v>-1.248</v>
       </c>
       <c r="J8">
-        <v>0.243</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10253,10 +10256,10 @@
         <v>-0.775</v>
       </c>
       <c r="I10">
-        <v>-0.381</v>
+        <v>-0.417</v>
       </c>
       <c r="J10">
-        <v>0.704</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10285,10 +10288,10 @@
         <v>-0.165</v>
       </c>
       <c r="I11">
-        <v>-0.078</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="J11">
-        <v>0.9379999999999999</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10317,10 +10320,10 @@
         <v>-0.128</v>
       </c>
       <c r="I12">
-        <v>-0.059</v>
+        <v>-0.064</v>
       </c>
       <c r="J12">
-        <v>0.953</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10349,10 +10352,10 @@
         <v>-1.845</v>
       </c>
       <c r="I13">
-        <v>-0.832</v>
+        <v>-0.787</v>
       </c>
       <c r="J13">
-        <v>0.406</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10381,10 +10384,10 @@
         <v>0.02</v>
       </c>
       <c r="I14">
-        <v>0.654</v>
+        <v>0.59</v>
       </c>
       <c r="J14">
-        <v>0.514</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10413,10 +10416,10 @@
         <v>0.001</v>
       </c>
       <c r="I15">
-        <v>0.034</v>
+        <v>0.037</v>
       </c>
       <c r="J15">
-        <v>0.973</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10445,10 +10448,10 @@
         <v>-0.021</v>
       </c>
       <c r="I16">
-        <v>-0.614</v>
+        <v>-0.719</v>
       </c>
       <c r="J16">
-        <v>0.54</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10477,10 +10480,10 @@
         <v>0.041</v>
       </c>
       <c r="I17">
-        <v>1.202</v>
+        <v>1.116</v>
       </c>
       <c r="J17">
-        <v>0.23</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10509,10 +10512,10 @@
         <v>-0.026</v>
       </c>
       <c r="I18">
-        <v>-0.756</v>
+        <v>-0.708</v>
       </c>
       <c r="J18">
-        <v>0.45</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10541,10 +10544,10 @@
         <v>0.027</v>
       </c>
       <c r="I19">
-        <v>0.773</v>
+        <v>0.875</v>
       </c>
       <c r="J19">
-        <v>0.44</v>
+        <v>0.382</v>
       </c>
     </row>
   </sheetData>
@@ -10630,10 +10633,10 @@
         <v>2.856</v>
       </c>
       <c r="I2">
-        <v>0.591</v>
+        <v>0.743</v>
       </c>
       <c r="J2">
-        <v>0.555</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10694,10 +10697,10 @@
         <v>2.322</v>
       </c>
       <c r="I4">
-        <v>0.377</v>
+        <v>0.371</v>
       </c>
       <c r="J4">
-        <v>0.707</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10726,10 +10729,10 @@
         <v>-3.272</v>
       </c>
       <c r="I5">
-        <v>-0.494</v>
+        <v>-0.543</v>
       </c>
       <c r="J5">
-        <v>0.621</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10758,10 +10761,10 @@
         <v>-2.102</v>
       </c>
       <c r="I6">
-        <v>-0.312</v>
+        <v>-0.323</v>
       </c>
       <c r="J6">
-        <v>0.755</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10790,10 +10793,10 @@
         <v>7.63</v>
       </c>
       <c r="I7">
-        <v>1.089</v>
+        <v>0.966</v>
       </c>
       <c r="J7">
-        <v>0.277</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10819,13 +10822,13 @@
         <v>0.015</v>
       </c>
       <c r="H8">
-        <v>-1.904</v>
+        <v>-1.805</v>
       </c>
       <c r="I8">
-        <v>-0.921</v>
+        <v>-1.186</v>
       </c>
       <c r="J8">
-        <v>0.358</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10854,10 +10857,10 @@
         <v>-0.272</v>
       </c>
       <c r="I9">
-        <v>-0.139</v>
+        <v>-0.134</v>
       </c>
       <c r="J9">
-        <v>0.889</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10886,10 +10889,10 @@
         <v>-2.11</v>
       </c>
       <c r="I10">
-        <v>-0.899</v>
+        <v>-0.917</v>
       </c>
       <c r="J10">
-        <v>0.37</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10918,10 +10921,10 @@
         <v>1.156</v>
       </c>
       <c r="I11">
-        <v>0.475</v>
+        <v>0.492</v>
       </c>
       <c r="J11">
-        <v>0.635</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10950,10 +10953,10 @@
         <v>-0.242</v>
       </c>
       <c r="I12">
-        <v>-0.097</v>
+        <v>-0.105</v>
       </c>
       <c r="J12">
-        <v>0.923</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10982,10 +10985,10 @@
         <v>-3.268</v>
       </c>
       <c r="I13">
-        <v>-1.278</v>
+        <v>-1.111</v>
       </c>
       <c r="J13">
-        <v>0.202</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11014,10 +11017,10 @@
         <v>-0.01</v>
       </c>
       <c r="I14">
-        <v>-0.282</v>
+        <v>-0.252</v>
       </c>
       <c r="J14">
-        <v>0.778</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11046,10 +11049,10 @@
         <v>-0.017</v>
       </c>
       <c r="I15">
-        <v>-0.466</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="J15">
-        <v>0.642</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11078,10 +11081,10 @@
         <v>-0.024</v>
       </c>
       <c r="I16">
-        <v>-0.614</v>
+        <v>-0.743</v>
       </c>
       <c r="J16">
-        <v>0.54</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11110,10 +11113,10 @@
         <v>0.035</v>
       </c>
       <c r="I17">
-        <v>0.9</v>
+        <v>0.878</v>
       </c>
       <c r="J17">
-        <v>0.369</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11142,10 +11145,10 @@
         <v>-0.019</v>
       </c>
       <c r="I18">
-        <v>-0.491</v>
+        <v>-0.483</v>
       </c>
       <c r="J18">
-        <v>0.624</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11174,10 +11177,10 @@
         <v>0.007</v>
       </c>
       <c r="I19">
-        <v>0.17</v>
+        <v>0.193</v>
       </c>
       <c r="J19">
-        <v>0.865</v>
+        <v>0.847</v>
       </c>
     </row>
   </sheetData>
@@ -11263,10 +11266,10 @@
         <v>-1.24</v>
       </c>
       <c r="I2">
-        <v>-0.414</v>
+        <v>-0.514</v>
       </c>
       <c r="J2">
-        <v>0.679</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11295,10 +11298,10 @@
         <v>1.57</v>
       </c>
       <c r="I3">
-        <v>0.624</v>
+        <v>0.63</v>
       </c>
       <c r="J3">
-        <v>0.533</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11327,10 +11330,10 @@
         <v>3.49</v>
       </c>
       <c r="I4">
-        <v>0.93</v>
+        <v>0.856</v>
       </c>
       <c r="J4">
-        <v>0.354</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11359,10 +11362,10 @@
         <v>2.789</v>
       </c>
       <c r="I5">
-        <v>0.665</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="J5">
-        <v>0.507</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11391,10 +11394,10 @@
         <v>-4.819</v>
       </c>
       <c r="I6">
-        <v>-1.105</v>
+        <v>-1.222</v>
       </c>
       <c r="J6">
-        <v>0.27</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11423,10 +11426,10 @@
         <v>0.724</v>
       </c>
       <c r="I7">
-        <v>0.163</v>
+        <v>0.15</v>
       </c>
       <c r="J7">
-        <v>0.871</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11452,13 +11455,13 @@
         <v>0.045</v>
       </c>
       <c r="H8">
-        <v>-0.204</v>
+        <v>-0.181</v>
       </c>
       <c r="I8">
-        <v>-0.152</v>
+        <v>-0.169</v>
       </c>
       <c r="J8">
-        <v>0.879</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11487,10 +11490,10 @@
         <v>-1.195</v>
       </c>
       <c r="I9">
-        <v>-1.002</v>
+        <v>-0.999</v>
       </c>
       <c r="J9">
-        <v>0.317</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11519,10 +11522,10 @@
         <v>-2.051</v>
       </c>
       <c r="I10">
-        <v>-1.372</v>
+        <v>-1.278</v>
       </c>
       <c r="J10">
-        <v>0.171</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11551,10 +11554,10 @@
         <v>-1.753</v>
       </c>
       <c r="I11">
-        <v>-1.113</v>
+        <v>-1.146</v>
       </c>
       <c r="J11">
-        <v>0.267</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11583,10 +11586,10 @@
         <v>2.182</v>
       </c>
       <c r="I12">
-        <v>1.324</v>
+        <v>1.421</v>
       </c>
       <c r="J12">
-        <v>0.187</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11615,10 +11618,10 @@
         <v>-0.473</v>
       </c>
       <c r="I13">
-        <v>-0.286</v>
+        <v>-0.269</v>
       </c>
       <c r="J13">
-        <v>0.775</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11647,10 +11650,10 @@
         <v>-0.016</v>
       </c>
       <c r="I14">
-        <v>-0.6820000000000001</v>
+        <v>-0.587</v>
       </c>
       <c r="J14">
-        <v>0.496</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11679,7 +11682,7 @@
         <v>-0</v>
       </c>
       <c r="I15">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="J15">
         <v>0.998</v>
@@ -11711,10 +11714,10 @@
         <v>0.008</v>
       </c>
       <c r="I16">
-        <v>0.291</v>
+        <v>0.335</v>
       </c>
       <c r="J16">
-        <v>0.772</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11743,10 +11746,10 @@
         <v>0.019</v>
       </c>
       <c r="I17">
-        <v>0.719</v>
+        <v>0.804</v>
       </c>
       <c r="J17">
-        <v>0.473</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11775,10 +11778,10 @@
         <v>-0.017</v>
       </c>
       <c r="I18">
-        <v>-0.64</v>
+        <v>-0.655</v>
       </c>
       <c r="J18">
-        <v>0.523</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11807,10 +11810,10 @@
         <v>0.012</v>
       </c>
       <c r="I19">
-        <v>0.483</v>
+        <v>0.51</v>
       </c>
       <c r="J19">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -11896,10 +11899,10 @@
         <v>3.728</v>
       </c>
       <c r="I2">
-        <v>1.015</v>
+        <v>1.511</v>
       </c>
       <c r="J2">
-        <v>0.311</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11928,10 +11931,10 @@
         <v>-0.134</v>
       </c>
       <c r="I3">
-        <v>-0.043</v>
+        <v>-0.049</v>
       </c>
       <c r="J3">
-        <v>0.966</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11960,10 +11963,10 @@
         <v>-0.3</v>
       </c>
       <c r="I4">
-        <v>-0.065</v>
+        <v>-0.073</v>
       </c>
       <c r="J4">
-        <v>0.948</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11992,10 +11995,10 @@
         <v>-2.558</v>
       </c>
       <c r="I5">
-        <v>-0.496</v>
+        <v>-0.541</v>
       </c>
       <c r="J5">
-        <v>0.62</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12024,10 +12027,10 @@
         <v>-10.695</v>
       </c>
       <c r="I6">
-        <v>-2.006</v>
+        <v>-2.687</v>
       </c>
       <c r="J6">
-        <v>0.046</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12056,10 +12059,10 @@
         <v>-0.467</v>
       </c>
       <c r="I7">
-        <v>-0.08599999999999999</v>
+        <v>-0.105</v>
       </c>
       <c r="J7">
-        <v>0.9320000000000001</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12085,13 +12088,13 @@
         <v>0.03</v>
       </c>
       <c r="H8">
-        <v>-2.433</v>
+        <v>-2.408</v>
       </c>
       <c r="I8">
-        <v>-1.481</v>
+        <v>-2.394</v>
       </c>
       <c r="J8">
-        <v>0.14</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12120,10 +12123,10 @@
         <v>-0.344</v>
       </c>
       <c r="I9">
-        <v>-0.234</v>
+        <v>-0.266</v>
       </c>
       <c r="J9">
-        <v>0.8149999999999999</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12152,10 +12155,10 @@
         <v>-0.724</v>
       </c>
       <c r="I10">
-        <v>-0.393</v>
+        <v>-0.422</v>
       </c>
       <c r="J10">
-        <v>0.695</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12184,10 +12187,10 @@
         <v>0.313</v>
       </c>
       <c r="I11">
-        <v>0.161</v>
+        <v>0.163</v>
       </c>
       <c r="J11">
-        <v>0.872</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12216,10 +12219,10 @@
         <v>3.601</v>
       </c>
       <c r="I12">
-        <v>1.782</v>
+        <v>2.551</v>
       </c>
       <c r="J12">
-        <v>0.076</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12248,10 +12251,10 @@
         <v>-0.466</v>
       </c>
       <c r="I13">
-        <v>-0.23</v>
+        <v>-0.286</v>
       </c>
       <c r="J13">
-        <v>0.819</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12280,10 +12283,10 @@
         <v>-0.007</v>
       </c>
       <c r="I14">
-        <v>-0.237</v>
+        <v>-0.189</v>
       </c>
       <c r="J14">
-        <v>0.8129999999999999</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12312,10 +12315,10 @@
         <v>-0.002</v>
       </c>
       <c r="I15">
-        <v>-0.065</v>
+        <v>-0.055</v>
       </c>
       <c r="J15">
-        <v>0.949</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12344,10 +12347,10 @@
         <v>-0.008</v>
       </c>
       <c r="I16">
-        <v>-0.256</v>
+        <v>-0.279</v>
       </c>
       <c r="J16">
-        <v>0.798</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12376,10 +12379,10 @@
         <v>0.05</v>
       </c>
       <c r="I17">
-        <v>1.587</v>
+        <v>1.57</v>
       </c>
       <c r="J17">
-        <v>0.114</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12408,10 +12411,10 @@
         <v>0.003</v>
       </c>
       <c r="I18">
-        <v>0.08699999999999999</v>
+        <v>0.079</v>
       </c>
       <c r="J18">
-        <v>0.931</v>
+        <v>0.9370000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12440,10 +12443,10 @@
         <v>0.033</v>
       </c>
       <c r="I19">
-        <v>1.087</v>
+        <v>1.095</v>
       </c>
       <c r="J19">
-        <v>0.278</v>
+        <v>0.273</v>
       </c>
     </row>
   </sheetData>
@@ -12529,10 +12532,10 @@
         <v>5.677</v>
       </c>
       <c r="I2">
-        <v>1.369</v>
+        <v>2.033</v>
       </c>
       <c r="J2">
-        <v>0.172</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12561,10 +12564,10 @@
         <v>1.897</v>
       </c>
       <c r="I3">
-        <v>0.542</v>
+        <v>0.571</v>
       </c>
       <c r="J3">
-        <v>0.589</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12593,10 +12596,10 @@
         <v>-1.196</v>
       </c>
       <c r="I4">
-        <v>-0.229</v>
+        <v>-0.255</v>
       </c>
       <c r="J4">
-        <v>0.819</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12625,10 +12628,10 @@
         <v>-3.965</v>
       </c>
       <c r="I5">
-        <v>-0.68</v>
+        <v>-0.718</v>
       </c>
       <c r="J5">
-        <v>0.497</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12657,10 +12660,10 @@
         <v>-9.069000000000001</v>
       </c>
       <c r="I6">
-        <v>-1.499</v>
+        <v>-1.823</v>
       </c>
       <c r="J6">
-        <v>0.135</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12689,10 +12692,10 @@
         <v>0.909</v>
       </c>
       <c r="I7">
-        <v>0.147</v>
+        <v>0.148</v>
       </c>
       <c r="J7">
-        <v>0.883</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12718,13 +12721,13 @@
         <v>0.023</v>
       </c>
       <c r="H8">
-        <v>-2.522</v>
+        <v>-2.483</v>
       </c>
       <c r="I8">
-        <v>-1.357</v>
+        <v>-1.939</v>
       </c>
       <c r="J8">
-        <v>0.176</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12753,10 +12756,10 @@
         <v>-1.264</v>
       </c>
       <c r="I9">
-        <v>-0.761</v>
+        <v>-0.798</v>
       </c>
       <c r="J9">
-        <v>0.447</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12785,10 +12788,10 @@
         <v>-1.24</v>
       </c>
       <c r="I10">
-        <v>-0.595</v>
+        <v>-0.624</v>
       </c>
       <c r="J10">
-        <v>0.552</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12817,10 +12820,10 @@
         <v>0.967</v>
       </c>
       <c r="I11">
-        <v>0.44</v>
+        <v>0.503</v>
       </c>
       <c r="J11">
-        <v>0.66</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12849,10 +12852,10 @@
         <v>2.592</v>
       </c>
       <c r="I12">
-        <v>1.13</v>
+        <v>1.205</v>
       </c>
       <c r="J12">
-        <v>0.26</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12881,10 +12884,10 @@
         <v>-0.127</v>
       </c>
       <c r="I13">
-        <v>-0.055</v>
+        <v>-0.057</v>
       </c>
       <c r="J13">
-        <v>0.956</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12913,10 +12916,10 @@
         <v>-0.005</v>
       </c>
       <c r="I14">
-        <v>-0.158</v>
+        <v>-0.167</v>
       </c>
       <c r="J14">
-        <v>0.875</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12945,7 +12948,7 @@
         <v>-0.01</v>
       </c>
       <c r="I15">
-        <v>-0.292</v>
+        <v>-0.293</v>
       </c>
       <c r="J15">
         <v>0.77</v>
@@ -12977,10 +12980,10 @@
         <v>-0.011</v>
       </c>
       <c r="I16">
-        <v>-0.309</v>
+        <v>-0.34</v>
       </c>
       <c r="J16">
-        <v>0.758</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13009,10 +13012,10 @@
         <v>0.049</v>
       </c>
       <c r="I17">
-        <v>1.371</v>
+        <v>1.244</v>
       </c>
       <c r="J17">
-        <v>0.172</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13041,10 +13044,10 @@
         <v>-0.004</v>
       </c>
       <c r="I18">
-        <v>-0.117</v>
+        <v>-0.103</v>
       </c>
       <c r="J18">
-        <v>0.907</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13073,10 +13076,10 @@
         <v>0.013</v>
       </c>
       <c r="I19">
-        <v>0.365</v>
+        <v>0.501</v>
       </c>
       <c r="J19">
-        <v>0.715</v>
+        <v>0.617</v>
       </c>
     </row>
   </sheetData>
@@ -13162,10 +13165,10 @@
         <v>1.546</v>
       </c>
       <c r="I2">
-        <v>0.312</v>
+        <v>0.413</v>
       </c>
       <c r="J2">
-        <v>0.756</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13194,10 +13197,10 @@
         <v>2.737</v>
       </c>
       <c r="I3">
-        <v>0.656</v>
+        <v>0.638</v>
       </c>
       <c r="J3">
-        <v>0.512</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13226,10 +13229,10 @@
         <v>3.359</v>
       </c>
       <c r="I4">
-        <v>0.539</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J4">
-        <v>0.59</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13258,10 +13261,10 @@
         <v>-7.018</v>
       </c>
       <c r="I5">
-        <v>-1.011</v>
+        <v>-1.028</v>
       </c>
       <c r="J5">
-        <v>0.313</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13290,10 +13293,10 @@
         <v>-10.371</v>
       </c>
       <c r="I6">
-        <v>-1.438</v>
+        <v>-1.722</v>
       </c>
       <c r="J6">
-        <v>0.152</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13322,10 +13325,10 @@
         <v>6.702</v>
       </c>
       <c r="I7">
-        <v>0.912</v>
+        <v>0.763</v>
       </c>
       <c r="J7">
-        <v>0.363</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13351,13 +13354,13 @@
         <v>0.016</v>
       </c>
       <c r="H8">
-        <v>-0.549</v>
+        <v>-0.437</v>
       </c>
       <c r="I8">
-        <v>-0.247</v>
+        <v>-0.269</v>
       </c>
       <c r="J8">
-        <v>0.805</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13386,10 +13389,10 @@
         <v>-2.297</v>
       </c>
       <c r="I9">
-        <v>-1.163</v>
+        <v>-1.129</v>
       </c>
       <c r="J9">
-        <v>0.246</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13418,10 +13421,10 @@
         <v>-3.287</v>
       </c>
       <c r="I10">
-        <v>-1.327</v>
+        <v>-1.336</v>
       </c>
       <c r="J10">
-        <v>0.186</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13450,10 +13453,10 @@
         <v>3.11</v>
       </c>
       <c r="I11">
-        <v>1.192</v>
+        <v>1.334</v>
       </c>
       <c r="J11">
-        <v>0.235</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13482,10 +13485,10 @@
         <v>2.846</v>
       </c>
       <c r="I12">
-        <v>1.041</v>
+        <v>1.112</v>
       </c>
       <c r="J12">
-        <v>0.299</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13514,10 +13517,10 @@
         <v>-2.417</v>
       </c>
       <c r="I13">
-        <v>-0.884</v>
+        <v>-0.789</v>
       </c>
       <c r="J13">
-        <v>0.378</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13549,7 +13552,7 @@
         <v>-0.663</v>
       </c>
       <c r="J14">
-        <v>0.508</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13578,10 +13581,10 @@
         <v>-0.032</v>
       </c>
       <c r="I15">
-        <v>-0.8100000000000001</v>
+        <v>-0.75</v>
       </c>
       <c r="J15">
-        <v>0.419</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13610,10 +13613,10 @@
         <v>-0.012</v>
       </c>
       <c r="I16">
-        <v>-0.284</v>
+        <v>-0.29</v>
       </c>
       <c r="J16">
-        <v>0.777</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13642,10 +13645,10 @@
         <v>0.03</v>
       </c>
       <c r="I17">
-        <v>0.6929999999999999</v>
+        <v>0.617</v>
       </c>
       <c r="J17">
-        <v>0.489</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13674,10 +13677,10 @@
         <v>-0.008</v>
       </c>
       <c r="I18">
-        <v>-0.187</v>
+        <v>-0.19</v>
       </c>
       <c r="J18">
-        <v>0.852</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13706,10 +13709,10 @@
         <v>-0.016</v>
       </c>
       <c r="I19">
-        <v>-0.373</v>
+        <v>-0.483</v>
       </c>
       <c r="J19">
-        <v>0.709</v>
+        <v>0.629</v>
       </c>
     </row>
   </sheetData>
@@ -13795,10 +13798,10 @@
         <v>0.247</v>
       </c>
       <c r="I2">
-        <v>0.075</v>
+        <v>0.083</v>
       </c>
       <c r="J2">
-        <v>0.9409999999999999</v>
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13827,10 +13830,10 @@
         <v>1.135</v>
       </c>
       <c r="I3">
-        <v>0.425</v>
+        <v>0.38</v>
       </c>
       <c r="J3">
-        <v>0.672</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13859,10 +13862,10 @@
         <v>-1.366</v>
       </c>
       <c r="I4">
-        <v>-0.322</v>
+        <v>-0.295</v>
       </c>
       <c r="J4">
-        <v>0.748</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13891,10 +13894,10 @@
         <v>-6.482</v>
       </c>
       <c r="I5">
-        <v>-1.393</v>
+        <v>-1.399</v>
       </c>
       <c r="J5">
-        <v>0.165</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13923,10 +13926,10 @@
         <v>-5.152</v>
       </c>
       <c r="I6">
-        <v>-1.062</v>
+        <v>-1.161</v>
       </c>
       <c r="J6">
-        <v>0.289</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13958,7 +13961,7 @@
         <v>-0.002</v>
       </c>
       <c r="J7">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13984,13 +13987,13 @@
         <v>0.05</v>
       </c>
       <c r="H8">
-        <v>-0.289</v>
+        <v>-0.285</v>
       </c>
       <c r="I8">
-        <v>-0.194</v>
+        <v>-0.226</v>
       </c>
       <c r="J8">
-        <v>0.846</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14019,10 +14022,10 @@
         <v>-0.964</v>
       </c>
       <c r="I9">
-        <v>-0.752</v>
+        <v>-0.6879999999999999</v>
       </c>
       <c r="J9">
-        <v>0.453</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14051,10 +14054,10 @@
         <v>0.074</v>
       </c>
       <c r="I10">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="J10">
-        <v>0.965</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14083,10 +14086,10 @@
         <v>1.478</v>
       </c>
       <c r="I11">
-        <v>0.842</v>
+        <v>0.875</v>
       </c>
       <c r="J11">
-        <v>0.401</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14115,10 +14118,10 @@
         <v>1.802</v>
       </c>
       <c r="I12">
-        <v>0.979</v>
+        <v>1.003</v>
       </c>
       <c r="J12">
-        <v>0.329</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -14147,10 +14150,10 @@
         <v>-0.574</v>
       </c>
       <c r="I13">
-        <v>-0.314</v>
+        <v>-0.239</v>
       </c>
       <c r="J13">
-        <v>0.754</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14179,10 +14182,10 @@
         <v>0.016</v>
       </c>
       <c r="I14">
-        <v>0.647</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="J14">
-        <v>0.518</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14211,10 +14214,10 @@
         <v>0.028</v>
       </c>
       <c r="I15">
-        <v>1.077</v>
+        <v>1.07</v>
       </c>
       <c r="J15">
-        <v>0.283</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14243,10 +14246,10 @@
         <v>0.011</v>
       </c>
       <c r="I16">
-        <v>0.382</v>
+        <v>0.433</v>
       </c>
       <c r="J16">
-        <v>0.703</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14275,10 +14278,10 @@
         <v>0.059</v>
       </c>
       <c r="I17">
-        <v>2.088</v>
+        <v>2.026</v>
       </c>
       <c r="J17">
-        <v>0.038</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14307,10 +14310,10 @@
         <v>-0.007</v>
       </c>
       <c r="I18">
-        <v>-0.247</v>
+        <v>-0.242</v>
       </c>
       <c r="J18">
-        <v>0.805</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14339,10 +14342,10 @@
         <v>0.026</v>
       </c>
       <c r="I19">
-        <v>0.909</v>
+        <v>0.724</v>
       </c>
       <c r="J19">
-        <v>0.364</v>
+        <v>0.469</v>
       </c>
     </row>
   </sheetData>
